--- a/CSVToJsonTest/messageTextList.xlsx
+++ b/CSVToJsonTest/messageTextList.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWork\GitHub\TxtToJsonConvert\CSVToJsonTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="sample2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="284">
   <si>
     <t>Sub Code</t>
   </si>
@@ -94,410 +95,925 @@
     <t>판매량을 0.0001(BTC) 이상으로 지정해주세요</t>
   </si>
   <si>
+    <t>판매가격은 마지막체결가의 80%이하로 지정할 수 없습니다</t>
+  </si>
+  <si>
+    <t>판매가격은 마지막체결가의 100배이상으로 지정할 수 없습니다</t>
+  </si>
+  <si>
+    <t>market1</t>
+  </si>
+  <si>
+    <t>구매량은 0(원)보다 크게 적어주세요</t>
+  </si>
+  <si>
+    <t>market2</t>
+  </si>
+  <si>
+    <t>market3</t>
+  </si>
+  <si>
+    <t>구매량은 0(BTC)보다 크게 적어주세요</t>
+  </si>
+  <si>
+    <t>market4</t>
+  </si>
+  <si>
+    <t>보유 비트코인이 부족합니다</t>
+  </si>
+  <si>
+    <t>stoplimit1</t>
+  </si>
+  <si>
+    <t>구매발동가격을 1,000(원) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>stoplimit2</t>
+  </si>
+  <si>
+    <t>구매발동가격을 1,000(원) 단위로 지정해주세요</t>
+  </si>
+  <si>
+    <t>stoplimit3</t>
+  </si>
+  <si>
+    <t>구매가격을 1,000(원) 단위로 지정해주세요.</t>
+  </si>
+  <si>
+    <t>구매량을 0.0001(BTC) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>구매량을 0(원) 보다 크게 지정해주세요</t>
+  </si>
+  <si>
+    <t>판매발동가격을 1,000(원) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>판매발동가격을 1,000(원) 단위로 지정해주세요</t>
+  </si>
+  <si>
+    <t>판매량을 0(원) 보다 크게 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder1</t>
+  </si>
+  <si>
+    <t>첫번째 구매가격을 1,000(원) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder2</t>
+  </si>
+  <si>
+    <t>첫번째 구매가격을 1,000(원) 단위로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder3</t>
+  </si>
+  <si>
+    <t>첫번째 구매량을 0.0001(BTC) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder4</t>
+  </si>
+  <si>
+    <t>두번째 판매가격을 1,000(원) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder5</t>
+  </si>
+  <si>
+    <t>두번째 판매가격을 1,000(원) 단위로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder6</t>
+  </si>
+  <si>
+    <t>두번째 판매가격을 첫번째 구매가격 보다 크게 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder7</t>
+  </si>
+  <si>
+    <t>looporder8</t>
+  </si>
+  <si>
+    <t>첫번째 구매가격은 마지막체결가의 120%이상으로 지정할 수 없습니다</t>
+  </si>
+  <si>
+    <t>looporder9</t>
+  </si>
+  <si>
+    <t>첫번째 구매가격은 마지막체결가의 1%이하로 지정할 수 없습니다</t>
+  </si>
+  <si>
+    <t>looporder10</t>
+  </si>
+  <si>
+    <t>첫번째 판매가격을 1,000(원) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder11</t>
+  </si>
+  <si>
+    <t>첫번째 판매가격을 1,000(원) 단위로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder12</t>
+  </si>
+  <si>
+    <t>첫번째 판매량을 0.0001(BTC) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder13</t>
+  </si>
+  <si>
+    <t>두번째 구매가격을 1,000(원) 이상으로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder14</t>
+  </si>
+  <si>
+    <t>두번째 구매가격을 1,000(원) 단위로 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder15</t>
+  </si>
+  <si>
+    <t>두번째 구매가격을 첫번째 판매가격 보다 작게 지정해주세요</t>
+  </si>
+  <si>
+    <t>looporder16</t>
+  </si>
+  <si>
+    <t>looporder17</t>
+  </si>
+  <si>
+    <t>첫번째 판매가격은 마지막체결가의 80%이하로 지정할 수 없습니다</t>
+  </si>
+  <si>
+    <t>looporder18</t>
+  </si>
+  <si>
+    <t>첫번째 판매가격은 마지막체결가의 100배이상으로 지정할 수 없습니다</t>
+  </si>
+  <si>
+    <t>stoplimit4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoplimit14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 테스트입니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 테스트입니다12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 테스트입니다13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Limit Order</t>
+  </si>
+  <si>
+    <t>Market Order</t>
+  </si>
+  <si>
+    <t>Stop Limit Order</t>
+  </si>
+  <si>
+    <t>Loop Order</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop Price</t>
+  </si>
+  <si>
+    <t>First Buy Price</t>
+  </si>
+  <si>
+    <t>First Buy Volume</t>
+  </si>
+  <si>
+    <t>Second Sell Price</t>
+  </si>
+  <si>
+    <t>First Sell Price</t>
+  </si>
+  <si>
+    <t>First Sell Volume</t>
+  </si>
+  <si>
+    <t>Second Buy Price</t>
+  </si>
+  <si>
+    <t>Only One Time</t>
+  </si>
+  <si>
+    <t>Not Limit</t>
+  </si>
+  <si>
+    <t>Not Use Gain</t>
+  </si>
+  <si>
+    <t>Use Gain</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Complete Order</t>
+  </si>
+  <si>
+    <t>Current Order</t>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Avg Price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
+    <t>Buy Price</t>
+  </si>
+  <si>
+    <t>First Volume</t>
+  </si>
+  <si>
+    <t>Remain Sell</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5이평</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10이평</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가주문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장가주문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약주문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복주문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용가능</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마진</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 구매가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 구매수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 판매가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 판매가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 판매수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 구매가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번만</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무제한</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재투자안함</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재투자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료주문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완료주문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 판매수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit Sell</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가 판매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit Buy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가 구매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Sell</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Buy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장가 판매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장가 구매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non Activate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비활성화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Buy Order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 구매 주문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Sell Order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 판매 주문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logout</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Information</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Amount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Minute</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1분</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5Minute</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5분</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>15Minute</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>15분</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>30Minute</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>60Minute</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>60분</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart Period</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>차트주기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please set the buy price to 1,000 won or more.</t>
+  </si>
+  <si>
+    <t>Please specify buy price in units of 1,000 (won)</t>
+  </si>
+  <si>
+    <t>Please set the buy amount to 0.0001 (BTC) or higher.</t>
+  </si>
+  <si>
+    <t>Insufficient fund</t>
+  </si>
+  <si>
+    <t>The buy price can not exceed 120% of the last price</t>
+  </si>
+  <si>
+    <t>buy price can not be less than 1% of last price</t>
+  </si>
+  <si>
+    <t>Please specify a sell price of 1,000 won or more.</t>
+  </si>
+  <si>
+    <t>Please specify the sell price in 1,000 won</t>
+  </si>
+  <si>
+    <t>Please set sell volume to 0.0001 (BTC) or higher</t>
+  </si>
+  <si>
     <t>limit10</t>
-  </si>
-  <si>
-    <t>판매가격은 마지막체결가의 80%이하로 지정할 수 없습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 비트코인이 부족합니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The reserve bitcoin is insufficient</t>
   </si>
   <si>
     <t>limit11</t>
-  </si>
-  <si>
-    <t>판매가격은 마지막체결가의 100배이상으로 지정할 수 없습니다</t>
-  </si>
-  <si>
-    <t>market1</t>
-  </si>
-  <si>
-    <t>구매량은 0(원)보다 크게 적어주세요</t>
-  </si>
-  <si>
-    <t>market2</t>
-  </si>
-  <si>
-    <t>market3</t>
-  </si>
-  <si>
-    <t>구매량은 0(BTC)보다 크게 적어주세요</t>
-  </si>
-  <si>
-    <t>market4</t>
-  </si>
-  <si>
-    <t>보유 비트코인이 부족합니다</t>
-  </si>
-  <si>
-    <t>stoplimit1</t>
-  </si>
-  <si>
-    <t>구매발동가격을 1,000(원) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>stoplimit2</t>
-  </si>
-  <si>
-    <t>구매발동가격을 1,000(원) 단위로 지정해주세요</t>
-  </si>
-  <si>
-    <t>stoplimit3</t>
-  </si>
-  <si>
-    <t>구매가격을 1,000(원) 단위로 지정해주세요.</t>
-  </si>
-  <si>
-    <t>구매량을 0.0001(BTC) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>구매량을 0(원) 보다 크게 지정해주세요</t>
-  </si>
-  <si>
-    <t>판매발동가격을 1,000(원) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>판매발동가격을 1,000(원) 단위로 지정해주세요</t>
-  </si>
-  <si>
-    <t>판매량을 0(원) 보다 크게 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder1</t>
-  </si>
-  <si>
-    <t>첫번째 구매가격을 1,000(원) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder2</t>
-  </si>
-  <si>
-    <t>첫번째 구매가격을 1,000(원) 단위로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder3</t>
-  </si>
-  <si>
-    <t>첫번째 구매량을 0.0001(BTC) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder4</t>
-  </si>
-  <si>
-    <t>두번째 판매가격을 1,000(원) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder5</t>
-  </si>
-  <si>
-    <t>두번째 판매가격을 1,000(원) 단위로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder6</t>
-  </si>
-  <si>
-    <t>두번째 판매가격을 첫번째 구매가격 보다 크게 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder7</t>
-  </si>
-  <si>
-    <t>looporder8</t>
-  </si>
-  <si>
-    <t>첫번째 구매가격은 마지막체결가의 120%이상으로 지정할 수 없습니다</t>
-  </si>
-  <si>
-    <t>looporder9</t>
-  </si>
-  <si>
-    <t>첫번째 구매가격은 마지막체결가의 1%이하로 지정할 수 없습니다</t>
-  </si>
-  <si>
-    <t>looporder10</t>
-  </si>
-  <si>
-    <t>첫번째 판매가격을 1,000(원) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder11</t>
-  </si>
-  <si>
-    <t>첫번째 판매가격을 1,000(원) 단위로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder12</t>
-  </si>
-  <si>
-    <t>첫번째 판매량을 0.0001(BTC) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder13</t>
-  </si>
-  <si>
-    <t>두번째 구매가격을 1,000(원) 이상으로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder14</t>
-  </si>
-  <si>
-    <t>두번째 구매가격을 1,000(원) 단위로 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder15</t>
-  </si>
-  <si>
-    <t>두번째 구매가격을 첫번째 판매가격 보다 작게 지정해주세요</t>
-  </si>
-  <si>
-    <t>looporder16</t>
-  </si>
-  <si>
-    <t>looporder17</t>
-  </si>
-  <si>
-    <t>첫번째 판매가격은 마지막체결가의 80%이하로 지정할 수 없습니다</t>
-  </si>
-  <si>
-    <t>looporder18</t>
-  </si>
-  <si>
-    <t>첫번째 판매가격은 마지막체결가의 100배이상으로 지정할 수 없습니다</t>
-  </si>
-  <si>
-    <t>stoplimit4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit11</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit13</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoplimit14</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user11</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이것은 테스트입니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이것은 테스트입니다12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user13</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이것은 테스트입니다13</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Price</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase</t>
-  </si>
-  <si>
-    <t>Limit Order</t>
-  </si>
-  <si>
-    <t>Market Order</t>
-  </si>
-  <si>
-    <t>Stop Limit Order</t>
-  </si>
-  <si>
-    <t>Loop Order</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Margin</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Buy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stop Price</t>
-  </si>
-  <si>
-    <t>First Buy Price</t>
-  </si>
-  <si>
-    <t>First Buy Volume</t>
-  </si>
-  <si>
-    <t>Second Sell Price</t>
-  </si>
-  <si>
-    <t>First Sell Price</t>
-  </si>
-  <si>
-    <t>First Sell Volume</t>
-  </si>
-  <si>
-    <t>Second Buy Price</t>
-  </si>
-  <si>
-    <t>Only One Time</t>
-  </si>
-  <si>
-    <t>Not Limit</t>
-  </si>
-  <si>
-    <t>Not Use Gain</t>
-  </si>
-  <si>
-    <t>Use Gain</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Complete Order</t>
-  </si>
-  <si>
-    <t>Current Order</t>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Avg Price</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remain</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell Price</t>
-  </si>
-  <si>
-    <t>Buy Price</t>
-  </si>
-  <si>
-    <t>First Volume</t>
-  </si>
-  <si>
-    <t>Remain Sell</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Detail</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The selling price can not be less than 80% of the last price</t>
+  </si>
+  <si>
+    <t>The selling price can not be specified more than 100 times the last price</t>
+  </si>
+  <si>
+    <t>buy amount should be larger than 0 (won)</t>
+  </si>
+  <si>
+    <t>buy quantity should be bigger than 0 (BTC)</t>
+  </si>
+  <si>
+    <t>Please set the buy price to 1,000 (KRW) or more</t>
+  </si>
+  <si>
+    <t>Please specify buy activation price in units of 1,000 (won)</t>
+  </si>
+  <si>
+    <t>Please set the buy price to 1,000 won or more</t>
+  </si>
+  <si>
+    <t>Please specify the buy price in units of 1,000 (won)</t>
+  </si>
+  <si>
+    <t>Please set the buy amount to 0.0001 (BTC) or higher</t>
+  </si>
+  <si>
+    <t>Please specify the buy amount larger than 0 (won)</t>
+  </si>
+  <si>
+    <t>Please specify sell activation price as 1,000 won or more</t>
+  </si>
+  <si>
+    <t>Please specify sell activation price in units of 1,000 (won)</t>
+  </si>
+  <si>
+    <t>Please specify a sell price of 1,000 won or more</t>
+  </si>
+  <si>
+    <t>The bitcoin is insufficient</t>
+  </si>
+  <si>
+    <t>Please specify sales volume larger than 0 (won)</t>
+  </si>
+  <si>
+    <t>Please specify the first buy price as 1,000 won or more</t>
+  </si>
+  <si>
+    <t>Please specify the first buy price in 1,000 won</t>
+  </si>
+  <si>
+    <t>Please specify your first buy as 0.0001 (BTC) or higher</t>
+  </si>
+  <si>
+    <t>Please specify a second sell price of 1,000 won or more</t>
+  </si>
+  <si>
+    <t>Please specify the second sell price in 1,000 won</t>
+  </si>
+  <si>
+    <t>Please specify the second sell price higher than the first buy price</t>
+  </si>
+  <si>
+    <t>The first buy price can not exceed 120% of the last price</t>
+  </si>
+  <si>
+    <t>The first buy price can not be less than 1% of the last price</t>
+  </si>
+  <si>
+    <t>Please specify the first sale price as 1,000 won or more</t>
+  </si>
+  <si>
+    <t>Please specify the first selling price in 1,000 won</t>
+  </si>
+  <si>
+    <t>Please set your first sell volume to 0.0001 (BTC) or higher</t>
+  </si>
+  <si>
+    <t>Please specify a second buy price of 1,000 won or more</t>
+  </si>
+  <si>
+    <t>Please specify the second buy price in 1,000 won</t>
+  </si>
+  <si>
+    <t>Please specify the second buy price less than the first sell price</t>
+  </si>
+  <si>
+    <t>The first sell price can not be less than 80% of the last price</t>
+  </si>
+  <si>
+    <t>The first sell price can not be specified more than 100 times the last price</t>
+  </si>
+  <si>
+    <t>This is a test</t>
+  </si>
+  <si>
+    <t>This is a test12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a test13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +1179,25 @@
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="굴림첿;font-size:9.0pt;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Menlo"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1090,11 +1625,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,251 +1995,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>144</v>
+      <c r="B48" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1706,21 +2577,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107" customWidth="1"/>
+    <col min="4" max="4" width="107" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1730,11 +2601,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1752,8 +2623,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1763,8 +2637,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1774,8 +2651,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1785,8 +2665,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1796,8 +2679,11 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1807,8 +2693,11 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1818,8 +2707,11 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1829,8 +2721,11 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1840,456 +2735,596 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D14" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D15" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D17" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D24" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D31" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D39" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="C51" t="s">
         <v>91</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D51" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D52" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
         <v>94</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
+      <c r="D53" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/CSVToJsonTest/messageTextList.xlsx
+++ b/CSVToJsonTest/messageTextList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="322">
   <si>
     <t>Sub Code</t>
   </si>
@@ -1007,6 +1007,158 @@
   </si>
   <si>
     <t>This is a test13</t>
+  </si>
+  <si>
+    <t>거래</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deposit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더북</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 거래</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시 거래</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Book</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trading</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Live Trades</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash Trade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Withdraw</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Asset</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총자산</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net Asset</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>순자산</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>동결된</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frozen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close Button</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogIn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일주소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Otp Code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTP 코드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remain Buy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 구매수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1996,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2379,194 +2531,346 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
